--- a/websiteautomation/ExcelData/Data Set.xlsx
+++ b/websiteautomation/ExcelData/Data Set.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishwa\Desktop\Data Planning\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D8493A-FEC0-40BD-9F70-9CB3B8EA705A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{93E819E4-9239-4471-9E23-EF62FF0D1ABA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{90E3E9DB-23FC-47E8-B598-3390D0F19D45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="2970" activeTab="1" xr2:uid="{90E3E9DB-23FC-47E8-B598-3390D0F19D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <oleSize ref="A1:K7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
   <si>
     <t>Products</t>
   </si>
@@ -40,9 +36,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>product_id</t>
   </si>
   <si>
     <t>pr_1w6jjmqcjiv</t>
@@ -515,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -533,6 +526,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,7 +846,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -872,24 +868,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -906,15 +902,15 @@
         <v>2018-11-01</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -926,7 +922,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -938,7 +934,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -950,7 +946,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -962,7 +958,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -974,7 +970,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
@@ -986,7 +982,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
@@ -998,7 +994,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7">
         <v>10</v>
@@ -1010,7 +1006,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>12</v>
@@ -1022,7 +1018,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7">
         <v>15</v>
@@ -1034,7 +1030,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="7">
         <v>16</v>
@@ -1046,7 +1042,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7">
         <v>17</v>
@@ -1058,7 +1054,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7">
         <v>18</v>
@@ -1070,7 +1066,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
         <v>19</v>
@@ -1082,7 +1078,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7">
         <v>20</v>
@@ -1094,7 +1090,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7">
         <v>21</v>
@@ -1106,7 +1102,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7">
         <v>24</v>
@@ -1118,7 +1114,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
         <v>25</v>
@@ -1130,7 +1126,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="7">
         <v>26</v>
@@ -1142,7 +1138,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="7">
         <v>27</v>
@@ -1154,7 +1150,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7">
         <v>28</v>
@@ -1166,7 +1162,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7">
         <v>29</v>
@@ -1178,7 +1174,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="7">
         <v>30</v>
@@ -1190,7 +1186,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="7">
         <v>31</v>
@@ -1202,7 +1198,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="7">
         <v>32</v>
@@ -1214,7 +1210,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="7">
         <v>33</v>
@@ -1226,7 +1222,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="7">
         <v>46</v>
@@ -1238,7 +1234,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="7">
         <v>47</v>
@@ -1250,7 +1246,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="7">
         <v>48</v>
@@ -1262,7 +1258,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="7">
         <v>49</v>
@@ -1274,7 +1270,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="7">
         <v>50</v>
@@ -1286,7 +1282,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="7">
         <v>51</v>
@@ -1298,535 +1294,535 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1840,691 +1836,482 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="9">
+        <v>43374</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="9">
+        <v>43375</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" s="9">
+        <v>43376</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+      <c r="A5" s="9">
+        <v>43377</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="9">
+        <v>43378</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+      <c r="A7" s="9">
+        <v>43379</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+      <c r="A8" s="9">
+        <v>43380</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+      <c r="A9" s="9">
+        <v>43381</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="A10" s="9">
+        <v>43382</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
+      <c r="A11" s="9">
+        <v>43383</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+      <c r="A12" s="9">
+        <v>43384</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
+      <c r="A13" s="9">
+        <v>43385</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
+      <c r="A14" s="9">
+        <v>43386</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
+      <c r="A15" s="9">
+        <v>43387</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+      <c r="A16" s="9">
+        <v>43388</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
+      <c r="A17" s="9">
+        <v>43389</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
+      <c r="A18" s="9">
+        <v>43390</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
+      <c r="A19" s="9">
+        <v>43391</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
+      <c r="A20" s="9">
+        <v>43392</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
+      <c r="A21" s="9">
+        <v>43393</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
+      <c r="A22" s="9">
+        <v>43394</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
+      <c r="A23" s="9">
+        <v>43395</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
+      <c r="A24" s="9">
+        <v>43396</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
+      <c r="A25" s="9">
+        <v>43397</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
+      <c r="A26" s="9">
+        <v>43398</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
+      <c r="A27" s="9">
+        <v>43399</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
+      <c r="A28" s="9">
+        <v>43400</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
+      <c r="A29" s="9">
+        <v>43401</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
+      <c r="A30" s="9">
+        <v>43402</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="9"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A32" s="9"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A33" s="9"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A34" s="9"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A35" s="9"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A36" s="9"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A37" s="9"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A38" s="9"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A39" s="9"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A40" s="9"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A41" s="9"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A42" s="9"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A43" s="9"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A44" s="9"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A45" s="9"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A46" s="9"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A47" s="9"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A48" s="9"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A49" s="9"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A50" s="9"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A51" s="9"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A53" s="9"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A54" s="9"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A55" s="9"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A56" s="9"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A57" s="9"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A59" s="9"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A60" s="9"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A61" s="9"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A62" s="9"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A63" s="9"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A64" s="9"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A65" s="9"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A66" s="9"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A67" s="9"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A68" s="9"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A69" s="9"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A70" s="9"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A71" s="9"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A72" s="9"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A73" s="9"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A74" s="9"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A75" s="9"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A76" s="9"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A77" s="9"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A78" s="9"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A79" s="9"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A80" s="9"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A81" s="9"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A82" s="9"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A83" s="9"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A84" s="9"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A85" s="9"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A86" s="9"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A87" s="9"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A88" s="9"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A89" s="9"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A90" s="9"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A91" s="9"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A92" s="9"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A93" s="9"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A94" s="9"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A95" s="9"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A96" s="9"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A97" s="9"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A98" s="9"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A99" s="9"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A100" s="9"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A101" s="9"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A102" s="9"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A103" s="9"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A104" s="9"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A105" s="9"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A106" s="9"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A107" s="9"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A108" s="9"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A109" s="9"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A110" s="9"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A111" s="9"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A112" s="9"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A113" s="9"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A114" s="9"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="A115" s="9"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="A116" s="9"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A117" s="9"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A118" s="9"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A119" s="9"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="A120" s="9"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A121" s="9"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A122" s="9"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A123" s="9"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="A124" s="9"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A125" s="9"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A126" s="9"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A127" s="9"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="A128" s="9"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A129" s="9"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A130" s="9"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A131" s="9"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A132" s="9"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A133" s="9"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="A134" s="9"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A135" s="9"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A136" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
